--- a/misc/ArmorAugmentSheet.xlsx
+++ b/misc/ArmorAugmentSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oasia\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\InhaGame-2024\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F3F7F-EE17-4FE4-8B90-91FBF1CFD591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="27720" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="225" windowWidth="27720" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>1스테이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,35 +33,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>합연산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곱연산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 체력 회복 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방탄복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>딜 평타 강화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>딜 스킬 데미지 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>힐 평타 치유량 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>힐 스킬 치유량 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>힐 전체 치유량 강화</t>
-  </si>
-  <si>
-    <t>합연산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>곱연산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초당 체력 회복 강화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 강화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -70,38 +93,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>방탄복</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 이동속도 강화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>쿨타임 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>재장전 속도 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,6 +373,24 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,24 +399,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,12 +676,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -692,238 +695,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11">
+        <v>10</v>
+      </c>
+      <c r="G9" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D11" s="11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="9">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9">
-        <v>10</v>
-      </c>
-      <c r="G3" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11">
-        <v>10</v>
-      </c>
-      <c r="G4" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12">
-        <v>10</v>
-      </c>
-      <c r="F5" s="11">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12">
-        <v>10</v>
-      </c>
-      <c r="F6" s="11">
-        <v>10</v>
-      </c>
-      <c r="G6" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12">
-        <v>10</v>
-      </c>
-      <c r="F7" s="11">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10">
-        <v>10</v>
-      </c>
-      <c r="F8" s="9">
-        <v>10</v>
-      </c>
-      <c r="G8" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11">
-        <v>10</v>
-      </c>
-      <c r="G9" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14">
-        <v>10</v>
-      </c>
-      <c r="F10" s="13">
-        <v>10</v>
-      </c>
-      <c r="G10" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11">
-        <v>10</v>
-      </c>
-      <c r="E11" s="12">
-        <v>10</v>
-      </c>
-      <c r="F11" s="11">
-        <v>10</v>
-      </c>
-      <c r="G11" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>19</v>
-      </c>
       <c r="D12" s="11">
         <v>10</v>
       </c>
@@ -938,11 +921,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="13">

--- a/misc/ArmorAugmentSheet.xlsx
+++ b/misc/ArmorAugmentSheet.xlsx
@@ -681,7 +681,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/misc/ArmorAugmentSheet.xlsx
+++ b/misc/ArmorAugmentSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>1스테이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,14 +33,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>합연산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>곱연산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>초당 체력 회복 강화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,6 +90,18 @@
   </si>
   <si>
     <t>재장전 속도 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합연산(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곱연산(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합연산(%)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +685,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,22 +710,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -730,7 +734,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="9">
         <v>10</v>
@@ -749,7 +753,7 @@
       <c r="A4" s="23"/>
       <c r="B4" s="3"/>
       <c r="C4" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="11">
         <v>10</v>
@@ -768,7 +772,7 @@
       <c r="A5" s="23"/>
       <c r="B5" s="3"/>
       <c r="C5" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="11">
         <v>10</v>
@@ -787,7 +791,7 @@
       <c r="A6" s="23"/>
       <c r="B6" s="3"/>
       <c r="C6" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="11">
         <v>10</v>
@@ -806,7 +810,7 @@
       <c r="A7" s="24"/>
       <c r="B7" s="3"/>
       <c r="C7" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="11">
         <v>10</v>
@@ -823,11 +827,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="9">
         <v>10</v>
@@ -846,7 +850,7 @@
       <c r="A9" s="23"/>
       <c r="B9" s="8"/>
       <c r="C9" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="11">
         <v>10</v>
@@ -865,7 +869,7 @@
       <c r="A10" s="24"/>
       <c r="B10" s="8"/>
       <c r="C10" s="19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="13">
         <v>10</v>
@@ -882,11 +886,11 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
@@ -905,7 +909,7 @@
       <c r="A12" s="23"/>
       <c r="B12" s="8"/>
       <c r="C12" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
@@ -924,7 +928,7 @@
       <c r="A13" s="24"/>
       <c r="B13" s="8"/>
       <c r="C13" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>

--- a/misc/ArmorAugmentSheet.xlsx
+++ b/misc/ArmorAugmentSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\InhaGame-2024\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JooWoan-WorkSpace\InhaGame-2024\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CA5BF1-AD95-4238-AF59-085609811685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="27720" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="345" yWindow="255" windowWidth="27720" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -680,12 +681,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,16 +738,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3" s="10">
         <v>10</v>
       </c>
       <c r="F3" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G3" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -756,16 +757,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4" s="12">
         <v>10</v>
       </c>
       <c r="F4" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G4" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -775,16 +776,16 @@
         <v>12</v>
       </c>
       <c r="D5" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" s="12">
         <v>10</v>
       </c>
       <c r="F5" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G5" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -794,16 +795,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12">
         <v>10</v>
       </c>
       <c r="F6" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -813,16 +814,16 @@
         <v>14</v>
       </c>
       <c r="D7" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7" s="12">
         <v>10</v>
       </c>
       <c r="F7" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -834,16 +835,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="10">
         <v>10</v>
       </c>
       <c r="F8" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -853,16 +854,16 @@
         <v>15</v>
       </c>
       <c r="D9" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12">
         <v>10</v>
       </c>
       <c r="F9" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -872,16 +873,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E10" s="14">
         <v>10</v>
       </c>
       <c r="F10" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G10" s="14">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -893,16 +894,16 @@
         <v>16</v>
       </c>
       <c r="D11" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11" s="12">
         <v>10</v>
       </c>
       <c r="F11" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G11" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -912,16 +913,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12">
         <v>10</v>
       </c>
       <c r="F12" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -931,16 +932,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E13" s="14">
         <v>10</v>
       </c>
       <c r="F13" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G13" s="14">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
